--- a/Campos Mapeados Facturacion Electronica 2022.xlsx
+++ b/Campos Mapeados Facturacion Electronica 2022.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Impuesto_tarifa" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="566">
   <si>
     <t>id</t>
   </si>
@@ -628,9 +629,6 @@
     <t>OBSERVACIÓN</t>
   </si>
   <si>
-    <t>DESCRIPCIÓN CAMPO</t>
-  </si>
-  <si>
     <t>Fecha de emisión</t>
   </si>
   <si>
@@ -709,9 +707,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>tipo_comprobante</t>
-  </si>
-  <si>
     <t>tipo_ambiente</t>
   </si>
   <si>
@@ -784,9 +779,6 @@
     <t>character varying</t>
   </si>
   <si>
-    <t>código que representa el valor del registro</t>
-  </si>
-  <si>
     <t>valor o descripción del registro</t>
   </si>
   <si>
@@ -808,27 +800,18 @@
     <t>Producción</t>
   </si>
   <si>
-    <t>nombre_ambiente</t>
-  </si>
-  <si>
     <t>tipo_ambiente_id</t>
   </si>
   <si>
     <t>tipo_ambiente.codigo</t>
   </si>
   <si>
-    <t>crear campo en tabla factura</t>
-  </si>
-  <si>
     <t>secuencia</t>
   </si>
   <si>
     <t>codigo_numerico</t>
   </si>
   <si>
-    <t>crear campo. codigo generado a través de algoritmo</t>
-  </si>
-  <si>
     <t>tipo_emision_id</t>
   </si>
   <si>
@@ -836,270 +819,937 @@
   </si>
   <si>
     <t>tipo_emision</t>
+  </si>
+  <si>
+    <t>identificador de registro</t>
+  </si>
+  <si>
+    <t>digito_verificador</t>
+  </si>
+  <si>
+    <t>int - campo generado por algoritmo módulo 11</t>
+  </si>
+  <si>
+    <t>crear campo. codigo generado a través de algoritmo módulo 11</t>
+  </si>
+  <si>
+    <t>int - campo generado por algoritmo elegido por emisor</t>
+  </si>
+  <si>
+    <t>TABLA 6</t>
+  </si>
+  <si>
+    <t>Tipo de identificación</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>CÉDULA</t>
+  </si>
+  <si>
+    <t>PASAPORTE</t>
+  </si>
+  <si>
+    <t>VENTA A CONSUMIDOR FINAL</t>
+  </si>
+  <si>
+    <t>IDENTIFICACIÓN DEL EXTERIOR</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>tabla referencia tipo_comprobante (crear campos)</t>
+  </si>
+  <si>
+    <t>tipo_comprobante.codigo_sri</t>
+  </si>
+  <si>
+    <t>codigo_sri</t>
+  </si>
+  <si>
+    <t>código que representa el valor del registro según datos del SRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe mapear los valores requeridos por el SRI y los que se encuentran en la tabla identificación </t>
+  </si>
+  <si>
+    <t>consultar si se debe crear tabla ya que hay tipo_contribuyente que tiene otros datos</t>
+  </si>
+  <si>
+    <t>tabla referencia tipo_ambiente (crear tabla y campos)</t>
+  </si>
+  <si>
+    <t>tabla referencia tipo_emision (crear tabla y campo)</t>
+  </si>
+  <si>
+    <t>TABLA 11</t>
+  </si>
+  <si>
+    <t>Razón social / nombres o apellidos</t>
+  </si>
+  <si>
+    <t>Nombre comercial</t>
+  </si>
+  <si>
+    <t>Dirección del establecimiento matriz</t>
+  </si>
+  <si>
+    <t>Código del establecimiento emisor</t>
+  </si>
+  <si>
+    <t>Código del punto de emisión</t>
+  </si>
+  <si>
+    <t>Contribuyente especial (Número de resolución)</t>
+  </si>
+  <si>
+    <t>Obligado a llevar contabilidad (Opciones SI o NO)</t>
+  </si>
+  <si>
+    <t>Logo del emisor</t>
+  </si>
+  <si>
+    <t>Alfanumérico</t>
+  </si>
+  <si>
+    <t>De selección</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>Ruc del emisor</t>
+  </si>
+  <si>
+    <t>Razón social del emisor</t>
+  </si>
+  <si>
+    <t>Max 300</t>
+  </si>
+  <si>
+    <t>nombre_comercial</t>
+  </si>
+  <si>
+    <t>Campo no creado</t>
+  </si>
+  <si>
+    <t>Min 3 Max 5</t>
+  </si>
+  <si>
+    <t>direccion_matriz</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>TABLA 12</t>
+  </si>
+  <si>
+    <t>Impuestos y tarifas parametrizables</t>
+  </si>
+  <si>
+    <t>Código identificador del producto o servicio asignado por el contribuyente</t>
+  </si>
+  <si>
+    <t>Código identificador auxiliar del producto o servicio</t>
+  </si>
+  <si>
+    <t>Nombre del producto o servicio</t>
+  </si>
+  <si>
+    <t>Valor unitario</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>Tarifa del impuesto</t>
+  </si>
+  <si>
+    <t>Campos adicionales</t>
+  </si>
+  <si>
+    <t>factura_detalle</t>
+  </si>
+  <si>
+    <t>factura_detalle.producto_id</t>
+  </si>
+  <si>
+    <t>producto.codigo</t>
+  </si>
+  <si>
+    <t>Tabla referencia producto</t>
+  </si>
+  <si>
+    <t>producto.nombre</t>
+  </si>
+  <si>
+    <t>subtotal_sin_descuento_linea</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>Confirmar*</t>
+  </si>
+  <si>
+    <t>valor_descuento_linea</t>
+  </si>
+  <si>
+    <t>iva_con_descuento_linea</t>
+  </si>
+  <si>
+    <t>factura_detalle.iva_id</t>
+  </si>
+  <si>
+    <t>impuesto.porcentaje</t>
+  </si>
+  <si>
+    <t>TABLA 13 - DATOS DEL COMPRADOR</t>
+  </si>
+  <si>
+    <t>Identificación (Número de RUC, cédula o pasaporte)</t>
+  </si>
+  <si>
+    <t>Nombres y apellidos o razón social</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>Placa (para el caso de guías de remisión)</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Dirección / ubicación</t>
+  </si>
+  <si>
+    <t>factura.cliente_id</t>
+  </si>
+  <si>
+    <t>cliente.razon_social</t>
+  </si>
+  <si>
+    <t>cliente.direccion_id</t>
+  </si>
+  <si>
+    <t>direccion.direccion. Tabla referencia direccion</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>TABLA 14</t>
+  </si>
+  <si>
+    <t>TABLA 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos considerados en tablas anteriores y para notas de crédito, débito y retenciones </t>
+  </si>
+  <si>
+    <t>Campos considerados solo para guias de remisión</t>
+  </si>
+  <si>
+    <t>TABLA 16
+Códigos de los impuestos</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>IRBPNR</t>
+  </si>
+  <si>
+    <t>IMPUESTO</t>
+  </si>
+  <si>
+    <t>Crear campo</t>
+  </si>
+  <si>
+    <t>TABLA 17
+Tarifa del IVA</t>
+  </si>
+  <si>
+    <t>Porcentaje IVA</t>
+  </si>
+  <si>
+    <t>No objeto de impuesto</t>
+  </si>
+  <si>
+    <t>Excento de IVA</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>TABLA 18
+Tarifa del ICE</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>TABLA 19 
+Impuestos para la retención</t>
+  </si>
+  <si>
+    <t>TABLA 20
+Retención del IVA</t>
+  </si>
+  <si>
+    <t>TABLA 21
+Subtotales y totales en los comprobantes</t>
+  </si>
+  <si>
+    <t>Sub total IVA _%</t>
+  </si>
+  <si>
+    <t>Sub total 0%</t>
+  </si>
+  <si>
+    <t>Sub total no objeto IVA</t>
+  </si>
+  <si>
+    <t>Sub total exento de IVA</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>Total descuento</t>
+  </si>
+  <si>
+    <t>Valor ICE</t>
+  </si>
+  <si>
+    <t>Valor IRBPNR</t>
+  </si>
+  <si>
+    <t>Valor IVA _%</t>
+  </si>
+  <si>
+    <t>Propina</t>
+  </si>
+  <si>
+    <t>VALOR TOTAL</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN CAMPO / TABLA</t>
+  </si>
+  <si>
+    <t>código que representa el valor del registro AUTOGENERADO POR programación</t>
+  </si>
+  <si>
+    <t>Pruebas / Producción</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+establecimiento_sri
+punto_venta_sri</t>
+  </si>
+  <si>
+    <t>Texto de tres (001-999)
+Texto de tres (001-999)</t>
+  </si>
+  <si>
+    <t>Crear campo en la tabla factura y concatenar establecimiento y puntoventa</t>
   </si>
   <si>
     <t>id
 codigo
-nombre_emision</t>
+descripcion_emision
+codigo_sri</t>
   </si>
   <si>
     <t>bigint
 character varying
-character varying</t>
-  </si>
-  <si>
-    <t>identificador de registro</t>
+character varying
+valor 1</t>
   </si>
   <si>
     <t>identificador de registro
 Código
-Descripción</t>
-  </si>
-  <si>
-    <t>digito_verificador</t>
-  </si>
-  <si>
-    <t>int - campo generado por algoritmo módulo 11</t>
-  </si>
-  <si>
-    <t>crear campo. codigo generado a través de algoritmo módulo 11</t>
-  </si>
-  <si>
-    <t>int - campo generado por algoritmo elegido por emisor</t>
-  </si>
-  <si>
-    <t>TABLA 6</t>
-  </si>
-  <si>
-    <t>Tipo de identificación</t>
-  </si>
-  <si>
-    <t>RUC</t>
-  </si>
-  <si>
-    <t>CÉDULA</t>
-  </si>
-  <si>
-    <t>PASAPORTE</t>
-  </si>
-  <si>
-    <t>VENTA A CONSUMIDOR FINAL</t>
-  </si>
-  <si>
-    <t>IDENTIFICACIÓN DEL EXTERIOR</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>cliente.tipo_identificacion</t>
-  </si>
-  <si>
-    <t>tabla referencia tipo_comprobante (crear campos)</t>
-  </si>
-  <si>
-    <t>tipo_comprobante.codigo_sri</t>
-  </si>
-  <si>
-    <t>codigo_sri</t>
-  </si>
-  <si>
-    <t>código que representa el valor del registro según datos del SRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se debe mapear los valores requeridos por el SRI y los que se encuentran en la tabla identificación </t>
-  </si>
-  <si>
-    <t>consultar si se debe crear tabla ya que hay tipo_contribuyente que tiene otros datos</t>
-  </si>
-  <si>
-    <t>tabla referencia tipo_ambiente (crear tabla y campos)</t>
-  </si>
-  <si>
-    <t>tabla referencia tipo_emision (crear tabla y campo)</t>
-  </si>
-  <si>
-    <t>TABLA 11</t>
-  </si>
-  <si>
-    <t>Razón social / nombres o apellidos</t>
-  </si>
-  <si>
-    <t>Nombre comercial</t>
-  </si>
-  <si>
-    <t>Dirección del establecimiento matriz</t>
-  </si>
-  <si>
-    <t>Dirección del establecimiento emisor</t>
-  </si>
-  <si>
-    <t>Código del establecimiento emisor</t>
-  </si>
-  <si>
-    <t>Código del punto de emisión</t>
-  </si>
-  <si>
-    <t>Contribuyente especial (Número de resolución)</t>
-  </si>
-  <si>
-    <t>Obligado a llevar contabilidad (Opciones SI o NO)</t>
-  </si>
-  <si>
-    <t>Logo del emisor</t>
-  </si>
-  <si>
-    <t>Alfanumérico</t>
-  </si>
-  <si>
-    <t>De selección</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Opcional</t>
-  </si>
-  <si>
-    <t>empresa</t>
-  </si>
-  <si>
-    <t>Ruc del emisor</t>
-  </si>
-  <si>
-    <t>Razón social del emisor</t>
-  </si>
-  <si>
-    <t>Max 300</t>
-  </si>
-  <si>
-    <t>nombre_comercial</t>
-  </si>
-  <si>
-    <t>Campo no creado</t>
-  </si>
-  <si>
-    <t>Min 3 Max 5</t>
-  </si>
-  <si>
-    <t>direccion_matriz</t>
-  </si>
-  <si>
-    <t>codigo_establecimiento</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>codigo_punto</t>
-  </si>
-  <si>
-    <t>Considerado en tabla 1</t>
-  </si>
-  <si>
-    <t>TABLA 12</t>
-  </si>
-  <si>
-    <t>Impuestos y tarifas parametrizables</t>
-  </si>
-  <si>
-    <t>Código identificador del producto o servicio asignado por el contribuyente</t>
-  </si>
-  <si>
-    <t>Código identificador auxiliar del producto o servicio</t>
-  </si>
-  <si>
-    <t>Nombre del producto o servicio</t>
-  </si>
-  <si>
-    <t>Valor unitario</t>
-  </si>
-  <si>
-    <t>Descuento</t>
-  </si>
-  <si>
-    <t>Impuesto</t>
-  </si>
-  <si>
-    <t>Tarifa del impuesto</t>
-  </si>
-  <si>
-    <t>Campos adicionales</t>
-  </si>
-  <si>
-    <t>Pendiente revisar</t>
-  </si>
-  <si>
-    <t>factura_detalle</t>
-  </si>
-  <si>
-    <t>factura_detalle.producto_id</t>
-  </si>
-  <si>
-    <t>producto.codigo</t>
-  </si>
-  <si>
-    <t>Tabla referencia producto</t>
-  </si>
-  <si>
-    <t>producto.nombre</t>
-  </si>
-  <si>
-    <t>subtotal_sin_descuento_linea</t>
-  </si>
-  <si>
-    <t>double precision</t>
-  </si>
-  <si>
-    <t>Confirmar*</t>
-  </si>
-  <si>
-    <t>valor_descuento_linea</t>
-  </si>
-  <si>
-    <t>iva_con_descuento_linea</t>
-  </si>
-  <si>
-    <t>factura_detalle.iva_id</t>
-  </si>
-  <si>
-    <t>impuesto.porcentaje</t>
-  </si>
-  <si>
-    <t>TABLA 13 - DATOS DEL COMPRADOR</t>
-  </si>
-  <si>
-    <t>Identificación (Número de RUC, cédula o pasaporte)</t>
-  </si>
-  <si>
-    <t>Nombres y apellidos o razón social</t>
-  </si>
-  <si>
-    <t>Dirección de correo electrónico</t>
-  </si>
-  <si>
-    <t>Placa (para el caso de guías de remisión)</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Dirección / ubicación</t>
-  </si>
-  <si>
-    <t>factura.cliente_id</t>
-  </si>
-  <si>
-    <t>cliente.razon_social</t>
-  </si>
-  <si>
-    <t>cliente.direccion_id</t>
-  </si>
-  <si>
-    <t>direccion.direccion. Tabla referencia direccion</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
+Descripción
+Codigo del sri valor 1</t>
+  </si>
+  <si>
+    <t>9 ceros</t>
+  </si>
+  <si>
+    <t>tipo_comprobante Nota: reordenar campos en el orden del sri</t>
+  </si>
+  <si>
+    <t>cliente.tipo_identificacion_id</t>
+  </si>
+  <si>
+    <t>crear campo. codigo generado a través de extraer los 8 ultimos dígitos del código Alejandro debe hacer</t>
+  </si>
+  <si>
+    <t>clave_acceso</t>
+  </si>
+  <si>
+    <t>establecimiento</t>
+  </si>
+  <si>
+    <t>direccion_establecimiento</t>
+  </si>
+  <si>
+    <t>codigo_establecimiento_sri</t>
+  </si>
+  <si>
+    <t>punto_venta</t>
+  </si>
+  <si>
+    <t>codigo_punto_sri</t>
+  </si>
+  <si>
+    <t>obligado_contabilidad</t>
+  </si>
+  <si>
+    <t>contribuyente_especial</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>ver tabla 16</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>IRBP</t>
+  </si>
+  <si>
+    <t>Impuesto al valor agregado</t>
+  </si>
+  <si>
+    <t>abreviatura</t>
+  </si>
+  <si>
+    <t>codigo_impuesto_sri</t>
+  </si>
+  <si>
+    <t>impuesto_tarifa</t>
+  </si>
+  <si>
+    <t>codigo_tarifa_sri</t>
+  </si>
+  <si>
+    <t>ver la hora impuesto_tarifa</t>
+  </si>
+  <si>
+    <t>impuesto_ice</t>
+  </si>
+  <si>
+    <t>crear tabla</t>
+  </si>
+  <si>
+    <t>subtotal_base12_con_descuento</t>
+  </si>
+  <si>
+    <t>subtotal_base0_con_descuento</t>
+  </si>
+  <si>
+    <t>subtotal_no_objeto_iva</t>
+  </si>
+  <si>
+    <t>crear campo y el valor por defecto es 0</t>
+  </si>
+  <si>
+    <t>subtotal_excento_iva</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>crear campo y formar de la sumatoria de k71 y k72</t>
+  </si>
+  <si>
+    <t>valor_descuento_total</t>
+  </si>
+  <si>
+    <t>valor_ice</t>
+  </si>
+  <si>
+    <t>valor_IRBPNR</t>
+  </si>
+  <si>
+    <t>iva_con_descuento</t>
+  </si>
+  <si>
+    <t>total_con_descuento</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" ?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;factura id="comprobante" version="1.0.0"&gt;</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>&lt;infoTributaria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ambiente&gt;1 &lt;/ambiente&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tipoEmision&gt;1 &lt;/ tipoEmision&gt;</t>
+  </si>
+  <si>
+    <t>&lt;razonSocial&gt;Distribuidora de Suministros Nacional S.A.&lt;/razonSocial&gt;</t>
+  </si>
+  <si>
+    <t>Max. 300</t>
+  </si>
+  <si>
+    <t>&lt;nombreComercial&gt;Empresa Importadora y Exportadora de Piezas&lt;/ nombreComercial &gt;</t>
+  </si>
+  <si>
+    <t>Obligatorio cuando corresponda</t>
+  </si>
+  <si>
+    <t>&lt;ruc&gt;1792146739001&lt;/ruc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;claveAcceso&gt;2110201101179214673900110020010000000011234567813&lt;/claveAcceso&gt;</t>
+  </si>
+  <si>
+    <t>Tabla 1</t>
+  </si>
+  <si>
+    <t>&lt;codDoc&gt;01&lt;/codDoc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;estab&gt;002&lt;/estab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ptoEmi&gt;001&lt;/ptoEmi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;secuencial&gt;000000001&lt;/secuencial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dirMatriz&gt;Enrique Guerrero Portilla OE1-34 AV. Galo Plaza Lasso&lt;/dirMatriz&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/infoTributaria&gt;</t>
+  </si>
+  <si>
+    <t>Fin de etiqueta</t>
+  </si>
+  <si>
+    <t>Inicio etiqueta</t>
+  </si>
+  <si>
+    <t>&lt;infoFactura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fechaEmision&gt;21/10/2012&lt;/fechaEmision&gt;</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>&lt;dirEstablecimiento&gt;Sebastián Moreno S/N Francisco García&lt;/ dirEstablecimiento &gt;</t>
+  </si>
+  <si>
+    <t>&lt;contribuyenteEspecial&gt;5368&lt;/contribuyenteEspecial&gt;</t>
+  </si>
+  <si>
+    <t>Min.3 Max. 13</t>
+  </si>
+  <si>
+    <t>&lt;obligadoContabilidad&gt;SI&lt;/ obligadoContabilidad &gt;</t>
+  </si>
+  <si>
+    <t>SI / NO</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>&lt;tipoIdentificacionComprador&gt;04&lt;/ tipoIdentificacionComprador &gt;</t>
+  </si>
+  <si>
+    <t>Tabla 6</t>
+  </si>
+  <si>
+    <t>&lt;guiaRemision&gt;001-001-000000001&lt;/guiaRemision&gt;</t>
+  </si>
+  <si>
+    <t>&lt;razonSocialComprador&gt;PRUEBAS SERVICIO DE RENTAS INTERNAS&lt;/razonSocialComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;identificacionComprador&gt;1713328506001&lt;/ identificacionComprador &gt;</t>
+  </si>
+  <si>
+    <t>Max. 20</t>
+  </si>
+  <si>
+    <t>&lt;direccionComprador&gt;salinas y santiago&lt;/direccionComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;totalSinImpuestos&gt;295000.00&lt;/totalSinImpuestos&gt;</t>
+  </si>
+  <si>
+    <t>Max. 14</t>
+  </si>
+  <si>
+    <t>&lt;totalDescuento&gt;5005.00&lt;/totalDescuento&gt;</t>
+  </si>
+  <si>
+    <t>&lt;totalConImpuestos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;totalImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigo&gt;3&lt;/codigo &gt;</t>
+  </si>
+  <si>
+    <t>Tabla 16</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;3072&lt;/ codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>Tabla 18</t>
+  </si>
+  <si>
+    <t>Min. 1 Max. 4</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;295000.00&lt;/ baseImponible &gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;14750.00&lt;/valor &gt;</t>
+  </si>
+  <si>
+    <t>&lt;/totalImpuesto &gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigo&gt;2&lt;/codigo &gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;2&lt;/ codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>Tabla 17</t>
+  </si>
+  <si>
+    <t>&lt;descuentoAdicional&gt;5.00&lt;/descuentoAdicional&gt;</t>
+  </si>
+  <si>
+    <t>aplica para código impuesto 2.</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;309750.00&lt;/ baseImponible &gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;37169.40&lt;/valor &gt;</t>
+  </si>
+  <si>
+    <t>&lt;/totalConImpuestos &gt;</t>
+  </si>
+  <si>
+    <t>&lt;propina&gt;0.00&lt;/propina&gt;</t>
+  </si>
+  <si>
+    <t>&lt;importeTotal&gt;347159.40&lt;/ importeTotal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;moneda&gt;DOLAR&lt;/moneda&gt;</t>
+  </si>
+  <si>
+    <t>Max. 15</t>
+  </si>
+  <si>
+    <t>&lt;pagos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pago&gt;</t>
+  </si>
+  <si>
+    <t>&lt;formaPago&gt;01&lt;/formaPago&gt;</t>
+  </si>
+  <si>
+    <t>TABLA 23
+Retención IVA</t>
+  </si>
+  <si>
+    <t>TABLA 22
+Impuesto a retener</t>
+  </si>
+  <si>
+    <t>Tabla 24</t>
+  </si>
+  <si>
+    <t>Revisar tabla</t>
+  </si>
+  <si>
+    <t>&lt;total&gt;347159.40&lt;/total&gt;</t>
+  </si>
+  <si>
+    <t>&lt;plazo&gt;30&lt;plazo&gt;</t>
+  </si>
+  <si>
+    <t>Obligatorio, cuando corresponda</t>
+  </si>
+  <si>
+    <t>&lt;unidadTiempo&gt;dias&lt;/unidadTiempo&gt;</t>
+  </si>
+  <si>
+    <t>Max. 10</t>
+  </si>
+  <si>
+    <t>&lt;/pago&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/pagos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valorRetIva&gt;10620.00&lt;/valorRetIva&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valorRetRenta&gt;2950.00&lt;/valorRetRenta&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/infoFactura&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detalles&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detalle&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPrincipal&gt;125BJC-01&lt;/codigoPrincipal &gt;</t>
+  </si>
+  <si>
+    <t>Max. 25</t>
+  </si>
+  <si>
+    <t>&lt;codigoAuxiliar&gt;1234D56789-A&lt;/codigoAuxiliar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descripcion&gt;CAMIONETA 4X4 DIESEL 3.7&lt;/descripcion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;cantidad&gt;10.00&lt;/cantidad&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioUnitario&gt;300000.00&lt;/precioUnitario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descuento&gt;5000.00&lt;/descuento&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioTotalSinImpuesto&gt;295000.00&lt;/ precioTotalSinImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detallesAdicionales&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detAdicional nombre="Marca Chevrolet" valor="Chevrolet"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detAdicional nombre="Modelo " valor="2012"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;detAdicional nombre="Chasis" valor="8LDETA03V20003289"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/detallesAdicionales&gt;</t>
+  </si>
+  <si>
+    <t>&lt;impuestos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;impuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigo&gt;3&lt;/codigo&gt;</t>
+  </si>
+  <si>
+    <t>Inicio de etiqueta</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;3072&lt;/codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tarifa&gt;5&lt;/ tarifa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;295000.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;14750.00&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/impuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigo&gt;2&lt;/codigo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;2&lt;/codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tarifa&gt;12&lt;/ tarifa&gt;</t>
+  </si>
+  <si>
+    <t>2 enteros 2 decimales</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;309750.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;37170.00&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigo&gt;5&lt;/codigo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;5001&lt;/codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tarifa&gt;0.02&lt;/ tarifa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;12000.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;240.00&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/impuestos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/detalle&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/detalles&gt;</t>
+  </si>
+  <si>
+    <t>&lt;infoAdicional&gt;</t>
+  </si>
+  <si>
+    <t>&lt;campoAdicional nombre="Codigo Impuesto ISD"&gt;4580&lt;/campoAdicional&gt;</t>
+  </si>
+  <si>
+    <t>&lt;campoAdicional nombre="Impuesto ISD"&gt;15.42x&lt;/campoAdicional&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/infoAdicional&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/factura&gt;</t>
+  </si>
+  <si>
+    <t>FORMATO XML FACTURA V 1.0.0 - ETIQUETAS</t>
+  </si>
+  <si>
+    <t>TABLA 24
+FORMAS DE PAGO</t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Ver archivo pdf</t>
+  </si>
+  <si>
+    <t>TABLA 26
+Tipo proveedor reembolso</t>
+  </si>
+  <si>
+    <t>ELABORADO</t>
+  </si>
+  <si>
+    <t>tabla creada, dentro de configuración</t>
+  </si>
+  <si>
+    <t>Campos creados y actualizados</t>
+  </si>
+  <si>
+    <t>tabla tipo_identificación</t>
+  </si>
+  <si>
+    <t>tabla creada, dentro de configuración. Cliente está tomando el valor a través de los métodos que hay que validar con Alejando desde el servicio de cliente</t>
+  </si>
+  <si>
+    <t>confirmar si es necesario crear el campo en la tabla factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ya estaba</t>
+  </si>
+  <si>
+    <t>tabla creada</t>
+  </si>
+  <si>
+    <t>tabla emision</t>
+  </si>
+  <si>
+    <t>campo direccion</t>
+  </si>
+  <si>
+    <t>Pendiente confirmar campos</t>
+  </si>
+  <si>
+    <t>impuesto</t>
+  </si>
+  <si>
+    <t>campos creados y actualizados</t>
+  </si>
+  <si>
+    <t>pendiente crear tabla, datos agregados a tabla impuesto</t>
+  </si>
+  <si>
+    <t>queda pendiente conversar con Mario para armar la estructura</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,8 +1818,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1194,15 +1856,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1215,54 +1868,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1322,11 +1933,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1338,9 +1973,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1355,28 +1987,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1385,24 +2008,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7096,7 +7787,7 @@
   <dimension ref="A5:DS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8004,13 +8695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8021,50 +8709,51 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="13" max="14" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>199</v>
+        <v>371</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>192</v>
@@ -8087,1960 +8776,4631 @@
       <c r="M2" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="N2" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="I4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="J9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="11">
+        <v>6</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L21" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="11">
+        <v>4</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="11">
+        <v>5</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
+        <v>13</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="11">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="11">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="11">
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>3</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="11">
+        <v>7</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>3</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="11">
+        <v>8</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="11">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="11">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="11">
+        <v>11</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="12">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="11">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="C42" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="N42" s="42"/>
+    </row>
+    <row r="43" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="11">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="11">
+        <v>5</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="11">
+        <v>6</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="11">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="11">
+        <v>8</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N48" s="42"/>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="11">
+        <v>9</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="42"/>
+    </row>
+    <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N50" s="42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="12">
+      <c r="C51" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="12">
+      <c r="C52" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N52" s="42"/>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="12">
+      <c r="C53" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12">
-        <v>9</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12">
-        <v>8</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="12">
-        <v>3</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="12">
-        <v>4</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="12">
-        <v>5</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="12">
-        <v>6</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12">
-        <v>2</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="12">
-        <v>2</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="12">
-        <v>3</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="12">
-        <v>4</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
-        <v>13</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="12">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="12">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="12">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="12">
-        <v>5</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="12">
-        <v>6</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12">
-        <v>3</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="12">
-        <v>7</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12">
-        <v>3</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="12">
-        <v>8</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="12">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12">
-        <v>2</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="12">
-        <v>10</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="12">
-        <v>11</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="12">
-        <v>12</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="12">
-        <v>2</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L40" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="M40" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="12">
-        <v>3</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="12">
-        <v>4</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="12">
-        <v>5</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="12">
-        <v>6</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="12">
-        <v>7</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="12">
-        <v>8</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="12">
-        <v>9</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="12">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="12">
-        <v>2</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="12">
-        <v>3</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="12">
-        <v>4</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="12">
-        <v>5</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="12">
-        <v>6</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="11">
+        <v>6</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="42">
+        <v>1</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N58" s="43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" s="11">
+        <v>3</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J59" s="44"/>
+      <c r="K59" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="N59" s="44"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F60" s="11">
+        <v>5</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J60" s="44"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+      <c r="N60" s="44"/>
+    </row>
+    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="42">
+        <v>1</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" s="44"/>
+      <c r="K61" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="N61" s="44"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="E62" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="F62" s="11">
+        <v>2</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" s="44"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="44"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="E63" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F63" s="11">
+        <v>3</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" s="44"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="44"/>
+    </row>
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="11">
+        <v>6</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" s="44"/>
+      <c r="K64" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="44"/>
+    </row>
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="E65" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="11">
+        <v>7</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J65" s="45"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="45"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="L67" s="21"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
+      <c r="J70" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>407</v>
+      </c>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="N70" s="16"/>
+    </row>
+    <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="11">
+        <v>2</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="11" t="s">
+        <v>408</v>
+      </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="N71" s="16"/>
+    </row>
+    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="11">
+        <v>3</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
+      <c r="M72" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="11">
+        <v>4</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="11">
+        <v>5</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="11">
+        <v>6</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="11">
+        <v>7</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L76" s="23"/>
+      <c r="M76" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N76" s="26"/>
+    </row>
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="11">
+        <v>8</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="L77" s="23"/>
+      <c r="M77" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N77" s="26"/>
+    </row>
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="11">
+        <v>9</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="26"/>
+    </row>
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="11">
+        <v>10</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L79" s="23"/>
+      <c r="M79" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N79" s="26"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="45"/>
+      <c r="B80" s="11">
+        <v>11</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="26"/>
+    </row>
+    <row r="81" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="26"/>
+    </row>
+    <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="26"/>
+    </row>
+    <row r="83" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B83" s="11">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="26"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="26"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="26"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="26"/>
+    </row>
+    <row r="87" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+    </row>
+    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="J90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="51"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23">
+        <v>1</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23">
+        <v>1</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23">
+        <v>13</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23">
+        <v>49</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23">
+        <v>2</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23">
+        <v>3</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23">
+        <v>3</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="51"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23">
+        <v>9</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="51"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="51"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="51"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="51"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23">
+        <v>300</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="51"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="51"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="51"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23">
+        <v>2</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="51"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23">
+        <v>15</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="51"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="51"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="51"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="51"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="51"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23">
+        <v>1</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I121" s="23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I122" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="51"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
+        <v>1</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I126" s="23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="51"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="51"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="51"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="51"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="51"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="51"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="51"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I134" s="23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="51"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="51"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23">
+        <v>2</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="K137" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="51"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="51"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="51"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="51"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="51"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I142" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="51"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I143" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="51"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I144" s="23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="51"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I145" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="51"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I146" s="23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="51"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I147" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="51"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I148" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="51"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I149" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="51"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I150" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="51"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="51"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I152" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="51"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H153" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I153" s="23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="51"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="51"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="51"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="51"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I157" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="51"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I158" s="23" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="51"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I159" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="51"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="51"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I161" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="51"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23">
+        <v>1</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I162" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="51"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H163" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I163" s="23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="51"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H164" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I164" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="51"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="51"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="51"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="51"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I168" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="51"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23">
+        <v>1</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I169" s="23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="51"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H170" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I170" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="51"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H171" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I171" s="23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="51"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H172" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I172" s="23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="51"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H173" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I173" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="51"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I174" s="23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="51"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I175" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="51"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23">
+        <v>1</v>
+      </c>
+      <c r="H176" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="51"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H177" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I177" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="51"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H178" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I178" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="51"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I179" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="51"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H180" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I180" s="23" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="51"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I181" s="23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="51"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I182" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="51"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I183" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="51"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I184" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="51"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I185" s="23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="51"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I186" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="51"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I187" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="51"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I188" s="23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="52"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I189" s="23" t="s">
+        <v>541</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A27:A38"/>
+  <mergeCells count="33">
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A90:A189"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="J70:J80"/>
+    <mergeCell ref="N41:N49"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="N58:N65"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="J58:J65"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E5 E7:E8 F22:F26" numberStoredAsText="1"/>
+    <ignoredError sqref="E5 E7:E8 F24:F28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Campos Mapeados Facturacion Electronica 2022.xlsx
+++ b/Campos Mapeados Facturacion Electronica 2022.xlsx
@@ -9,16 +9,171 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Impuesto_tarifa" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId4"/>
+    <sheet name="Impuesto_tarifa" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No se a que tabla pertenece este campo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Crear campo iva0_con_descuento y el valor es Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Pendiente generar relación con factura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Crear campo, no es obligatorio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Pendiente generar relación con factura_detalle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A89" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Pendiente generar relación con factura_detalle</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="647">
   <si>
     <t>id</t>
   </si>
@@ -1313,9 +1468,6 @@
     <t>&lt;factura id="comprobante" version="1.0.0"&gt;</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>&lt;infoTributaria&gt;</t>
   </si>
   <si>
@@ -1516,9 +1668,6 @@
     <t>Tabla 24</t>
   </si>
   <si>
-    <t>Revisar tabla</t>
-  </si>
-  <si>
     <t>&lt;total&gt;347159.40&lt;/total&gt;</t>
   </si>
   <si>
@@ -1750,13 +1899,262 @@
   </si>
   <si>
     <t>queda pendiente conversar con Mario para armar la estructura</t>
+  </si>
+  <si>
+    <t>Esta tabla queda pendiente ya que no coinciden con los valores registrados en el xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;</t>
+  </si>
+  <si>
+    <t>FORMATO XML FACTURA ELABORADA EN EL FACTURADOR</t>
+  </si>
+  <si>
+    <t>&lt;ambiente&gt;1&lt;/ambiente&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tipoEmision&gt;1&lt;/tipoEmision&gt;</t>
+  </si>
+  <si>
+    <t>&lt;razonSocial&gt;DELGADO DAQUILEMA MARIO RUBEN&lt;/razonSocial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;nombreComercial&gt;CCAT&lt;/nombreComercial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ruc&gt;0603467226001&lt;/ruc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;claveAcceso&gt;2607202201060346722600110010040000000131234567812&lt;/claveAcceso&gt;</t>
+  </si>
+  <si>
+    <t>&lt;estab&gt;001&lt;/estab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ptoEmi&gt;004&lt;/ptoEmi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;secuencial&gt;000000013&lt;/secuencial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dirMatriz&gt;BERLIN Y AMSTERDAM &lt;/dirMatriz&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fechaEmision&gt;26/07/2022&lt;/fechaEmision&gt;</t>
+  </si>
+  <si>
+    <t>&lt;obligadoContabilidad&gt;NO&lt;/obligadoContabilidad&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tipoIdentificacionComprador&gt;05&lt;/tipoIdentificacionComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;razonSocialComprador&gt;MENDOZA MAYRA&lt;/razonSocialComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;identificacionComprador&gt;1500654262&lt;/identificacionComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;direccionComprador&gt;RIOBAMBA&lt;/direccionComprador&gt;</t>
+  </si>
+  <si>
+    <t>&lt;totalSinImpuestos&gt;1214.00&lt;/totalSinImpuestos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;totalDescuento&gt;0.00&lt;/totalDescuento&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPorcentaje&gt;0&lt;/codigoPorcentaje&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;925.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tarifa&gt;0.00&lt;/tarifa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;0.00&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/totalImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;289.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tarifa&gt;12.00&lt;/tarifa&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;34.68&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/totalConImpuestos&gt;</t>
+  </si>
+  <si>
+    <t>&lt;importeTotal&gt;1248.68&lt;/importeTotal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;formaPago&gt;20&lt;/formaPago&gt;</t>
+  </si>
+  <si>
+    <t>&lt;total&gt;1000.00&lt;/total&gt;</t>
+  </si>
+  <si>
+    <t>&lt;total&gt;48.68&lt;/total&gt;</t>
+  </si>
+  <si>
+    <t>&lt;plazo&gt;3&lt;/plazo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;unidadTiempo&gt;Meses&lt;/unidadTiempo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPrincipal&gt;01&lt;/codigoPrincipal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoAuxiliar&gt;01&lt;/codigoAuxiliar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descripcion&gt;SERV 12&lt;/descripcion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;cantidad&gt;1&lt;/cantidad&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioUnitario&gt;100&lt;/precioUnitario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descuento&gt;0&lt;/descuento&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioTotalSinImpuesto&gt;100.00&lt;/precioTotalSinImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;100.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;12.00&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPrincipal&gt;02&lt;/codigoPrincipal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoAuxiliar&gt;02&lt;/codigoAuxiliar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descripcion&gt;SERVICIO 0&lt;/descripcion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioUnitario&gt;700&lt;/precioUnitario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioTotalSinImpuesto&gt;700.00&lt;/precioTotalSinImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;700.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPrincipal&gt;03&lt;/codigoPrincipal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoAuxiliar&gt;03&lt;/codigoAuxiliar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descripcion&gt;BIEN 12&lt;/descripcion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioUnitario&gt;189&lt;/precioUnitario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioTotalSinImpuesto&gt;189.00&lt;/precioTotalSinImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;189.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valor&gt;22.68&lt;/valor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoPrincipal&gt;04&lt;/codigoPrincipal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;codigoAuxiliar&gt;05&lt;/codigoAuxiliar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;descripcion&gt;BIEN 0&lt;/descripcion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioUnitario&gt;225&lt;/precioUnitario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;precioTotalSinImpuesto&gt;225.00&lt;/precioTotalSinImpuesto&gt;</t>
+  </si>
+  <si>
+    <t>&lt;baseImponible&gt;225.00&lt;/baseImponible&gt;</t>
+  </si>
+  <si>
+    <t>CAMPO MAPEADO</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>tipo_comprobante</t>
+  </si>
+  <si>
+    <t>tipo_identificacion</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>verificar</t>
+  </si>
+  <si>
+    <t>subtotal_base0_sin_descuento</t>
+  </si>
+  <si>
+    <t>subtotal_base12_sin_descuento</t>
+  </si>
+  <si>
+    <t>iva0_con_descuento</t>
+  </si>
+  <si>
+    <t>forma_pago</t>
+  </si>
+  <si>
+    <t>CONTENIDO XML</t>
+  </si>
+  <si>
+    <t>recaudacion</t>
+  </si>
+  <si>
+    <t>recuadacion</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>no se implementa es opcional</t>
+  </si>
+  <si>
+    <t>valor_descuento_total_linea</t>
+  </si>
+  <si>
+    <t>subtotal_con_descuento</t>
+  </si>
+  <si>
+    <t>claveAccesoSri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,8 +2178,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,6 +2238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,7 +2378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2060,6 +2477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2093,7 +2516,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8695,10 +9121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146:L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8717,23 +9143,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -8777,11 +9203,11 @@
         <v>198</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>205</v>
       </c>
       <c r="B3" s="11">
@@ -8819,7 +9245,7 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -8859,7 +9285,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -8897,7 +9323,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -8937,7 +9363,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -8975,7 +9401,7 @@
       <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -9013,7 +9439,7 @@
       <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -9051,7 +9477,7 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -9091,7 +9517,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -9129,7 +9555,7 @@
       <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -9146,7 +9572,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -9191,17 +9617,17 @@
         <v>380</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="46" t="s">
         <v>228</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="51" t="s">
         <v>232</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -9222,7 +9648,7 @@
       <c r="I14" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="53" t="s">
         <v>382</v>
       </c>
       <c r="K14" s="11" t="s">
@@ -9234,16 +9660,16 @@
       <c r="M14" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="42" t="s">
-        <v>552</v>
+      <c r="N14" s="46" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="11" t="s">
         <v>246</v>
       </c>
@@ -9262,7 +9688,7 @@
       <c r="I15" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="11" t="s">
         <v>278</v>
       </c>
@@ -9272,14 +9698,14 @@
       <c r="M15" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="11" t="s">
         <v>246</v>
       </c>
@@ -9298,7 +9724,7 @@
       <c r="I16" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="11" t="s">
         <v>70</v>
       </c>
@@ -9308,14 +9734,14 @@
       <c r="M16" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="11">
         <v>4</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="11" t="s">
         <v>246</v>
       </c>
@@ -9334,18 +9760,18 @@
       <c r="I17" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="42"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="11">
         <v>5</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="11" t="s">
         <v>246</v>
       </c>
@@ -9364,18 +9790,18 @@
       <c r="I18" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="42"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="11">
         <v>6</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="11" t="s">
         <v>246</v>
       </c>
@@ -9394,20 +9820,20 @@
       <c r="I19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="42"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="47" t="s">
         <v>253</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="46" t="s">
         <v>210</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -9428,7 +9854,7 @@
       <c r="I20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="50" t="s">
         <v>225</v>
       </c>
       <c r="K20" s="11" t="s">
@@ -9440,16 +9866,16 @@
       <c r="M20" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="N20" s="42" t="s">
-        <v>551</v>
+      <c r="N20" s="46" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="11" t="s">
         <v>246</v>
       </c>
@@ -9468,7 +9894,7 @@
       <c r="I21" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="11" t="s">
         <v>223</v>
       </c>
@@ -9478,19 +9904,19 @@
       <c r="M21" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="46"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="11" t="s">
         <v>63</v>
       </c>
@@ -9500,19 +9926,19 @@
       <c r="M22" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="46"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="11" t="s">
         <v>278</v>
       </c>
@@ -9522,16 +9948,16 @@
       <c r="M23" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="46" t="s">
         <v>268</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="51" t="s">
         <v>269</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -9552,7 +9978,7 @@
       <c r="I24" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="47" t="s">
         <v>221</v>
       </c>
       <c r="K24" s="11" t="s">
@@ -9564,16 +9990,16 @@
       <c r="M24" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="N24" s="42" t="s">
-        <v>554</v>
+      <c r="N24" s="46" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="11">
         <v>2</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="11" t="s">
         <v>246</v>
       </c>
@@ -9592,9 +10018,9 @@
       <c r="I25" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J25" s="44"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>0</v>
@@ -9602,14 +10028,14 @@
       <c r="M25" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="11">
         <v>3</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="11" t="s">
         <v>246</v>
       </c>
@@ -9628,20 +10054,20 @@
       <c r="I26" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J26" s="44"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M26" s="11"/>
-      <c r="N26" s="42"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="11">
         <v>4</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="11" t="s">
         <v>246</v>
       </c>
@@ -9660,7 +10086,7 @@
       <c r="I27" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="44"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
         <v>63</v>
@@ -9668,14 +10094,14 @@
       <c r="M27" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="N27" s="42"/>
+      <c r="N27" s="46"/>
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="11">
         <v>5</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="11" t="s">
         <v>246</v>
       </c>
@@ -9694,16 +10120,16 @@
       <c r="I28" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J28" s="45"/>
+      <c r="J28" s="49"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
         <v>278</v>
       </c>
       <c r="M28" s="11"/>
-      <c r="N28" s="42"/>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="47" t="s">
         <v>284</v>
       </c>
       <c r="B29" s="11">
@@ -9741,11 +10167,11 @@
         <v>298</v>
       </c>
       <c r="N29" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="11">
         <v>2</v>
       </c>
@@ -9781,11 +10207,11 @@
         <v>299</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="11">
         <v>3</v>
       </c>
@@ -9821,11 +10247,11 @@
         <v>302</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="11">
         <v>4</v>
       </c>
@@ -9861,16 +10287,16 @@
         <v>302</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="11">
         <v>5</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>293</v>
@@ -9896,14 +10322,14 @@
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="11">
         <v>6</v>
       </c>
@@ -9939,11 +10365,11 @@
         <v>302</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="11">
         <v>7</v>
       </c>
@@ -9979,11 +10405,11 @@
         <v>302</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="11">
         <v>8</v>
       </c>
@@ -10017,11 +10443,11 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="11">
         <v>9</v>
       </c>
@@ -10055,11 +10481,11 @@
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="11">
         <v>10</v>
       </c>
@@ -10091,11 +10517,11 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="11">
         <v>11</v>
       </c>
@@ -10124,12 +10550,12 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="11">
         <v>12</v>
       </c>
@@ -10158,12 +10584,12 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="46" t="s">
         <v>306</v>
       </c>
       <c r="B41" s="11">
@@ -10188,12 +10614,12 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="42" t="s">
-        <v>561</v>
+      <c r="N41" s="46" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="11">
         <v>2</v>
       </c>
@@ -10222,10 +10648,10 @@
       <c r="M42" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="N42" s="42"/>
+      <c r="N42" s="46"/>
     </row>
     <row r="43" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="11">
         <v>3</v>
       </c>
@@ -10244,10 +10670,10 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="42"/>
+      <c r="N43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="11">
         <v>4</v>
       </c>
@@ -10276,10 +10702,10 @@
       <c r="M44" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="N44" s="42"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="11">
         <v>5</v>
       </c>
@@ -10308,10 +10734,10 @@
       <c r="M45" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="N45" s="42"/>
+      <c r="N45" s="46"/>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="11">
         <v>6</v>
       </c>
@@ -10340,10 +10766,10 @@
       <c r="M46" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="N46" s="42"/>
+      <c r="N46" s="46"/>
     </row>
     <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="11">
         <v>7</v>
       </c>
@@ -10372,10 +10798,10 @@
       <c r="M47" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="N47" s="42"/>
+      <c r="N47" s="46"/>
     </row>
     <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="11">
         <v>8</v>
       </c>
@@ -10404,10 +10830,10 @@
       <c r="M48" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="N48" s="42"/>
+      <c r="N48" s="46"/>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="11">
         <v>9</v>
       </c>
@@ -10426,10 +10852,10 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="42"/>
+      <c r="N49" s="46"/>
     </row>
     <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="46" t="s">
         <v>328</v>
       </c>
       <c r="B50" s="11">
@@ -10458,12 +10884,12 @@
       <c r="M50" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="N50" s="42" t="s">
-        <v>557</v>
+      <c r="N50" s="46" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="11">
         <v>2</v>
       </c>
@@ -10490,10 +10916,10 @@
       <c r="M51" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="N51" s="42"/>
+      <c r="N51" s="46"/>
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="11">
         <v>3</v>
       </c>
@@ -10520,10 +10946,10 @@
       <c r="M52" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="N52" s="42"/>
+      <c r="N52" s="46"/>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="11">
         <v>4</v>
       </c>
@@ -10544,10 +10970,10 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="42"/>
+      <c r="N53" s="46"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="11">
         <v>5</v>
       </c>
@@ -10566,10 +10992,10 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="42"/>
+      <c r="N54" s="46"/>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="11">
         <v>6</v>
       </c>
@@ -10588,7 +11014,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="42"/>
+      <c r="N55" s="46"/>
     </row>
     <row r="56" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
@@ -10631,13 +11057,13 @@
       <c r="N57" s="16"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B58" s="46">
         <v>1</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="46" t="s">
         <v>348</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -10658,8 +11084,8 @@
       <c r="I58" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J58" s="43" t="s">
-        <v>562</v>
+      <c r="J58" s="47" t="s">
+        <v>560</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>278</v>
@@ -10670,14 +11096,14 @@
       <c r="M58" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="N58" s="43" t="s">
-        <v>563</v>
+      <c r="N58" s="47" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="11" t="s">
         <v>246</v>
       </c>
@@ -10696,7 +11122,7 @@
       <c r="I59" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J59" s="44"/>
+      <c r="J59" s="48"/>
       <c r="K59" s="11" t="s">
         <v>63</v>
       </c>
@@ -10704,12 +11130,12 @@
         <v>248</v>
       </c>
       <c r="M59" s="11"/>
-      <c r="N59" s="44"/>
+      <c r="N59" s="48"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="11" t="s">
         <v>246</v>
       </c>
@@ -10728,20 +11154,20 @@
       <c r="I60" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J60" s="44"/>
+      <c r="J60" s="48"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="44"/>
+      <c r="N60" s="48"/>
     </row>
     <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="46">
         <v>1</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="46" t="s">
         <v>351</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -10762,7 +11188,7 @@
       <c r="I61" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J61" s="44"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="11" t="s">
         <v>354</v>
       </c>
@@ -10770,12 +11196,12 @@
         <v>305</v>
       </c>
       <c r="M61" s="11"/>
-      <c r="N61" s="44"/>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="11"/>
       <c r="E62" s="22">
         <v>0.12</v>
@@ -10792,16 +11218,16 @@
       <c r="I62" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J62" s="44"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="17"/>
-      <c r="N62" s="44"/>
+      <c r="N62" s="48"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="11"/>
       <c r="E63" s="22">
         <v>0.14000000000000001</v>
@@ -10818,16 +11244,16 @@
       <c r="I63" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J63" s="44"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
-      <c r="N63" s="44"/>
+      <c r="N63" s="48"/>
     </row>
     <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
         <v>352</v>
@@ -10844,18 +11270,18 @@
       <c r="I64" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J64" s="44"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="16" t="s">
         <v>404</v>
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="17"/>
-      <c r="N64" s="44"/>
+      <c r="N64" s="48"/>
     </row>
     <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
         <v>353</v>
@@ -10872,11 +11298,11 @@
       <c r="I65" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J65" s="45"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="19"/>
-      <c r="N65" s="45"/>
+      <c r="N65" s="49"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
@@ -10917,7 +11343,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="15"/>
       <c r="N67" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -10939,7 +11365,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="15"/>
       <c r="N68" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -10961,11 +11387,11 @@
       <c r="L69" s="21"/>
       <c r="M69" s="15"/>
       <c r="N69" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="47" t="s">
         <v>359</v>
       </c>
       <c r="B70" s="11">
@@ -10980,7 +11406,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="42" t="s">
+      <c r="J70" s="46" t="s">
         <v>221</v>
       </c>
       <c r="K70" s="11" t="s">
@@ -10988,10 +11414,12 @@
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="16"/>
+      <c r="N70" s="46" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="11">
         <v>2</v>
       </c>
@@ -11004,16 +11432,16 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="42"/>
+      <c r="J71" s="46"/>
       <c r="K71" s="11" t="s">
         <v>408</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="N71" s="16"/>
+      <c r="N71" s="46"/>
     </row>
     <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="11">
         <v>3</v>
       </c>
@@ -11026,7 +11454,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="42"/>
+      <c r="J72" s="46"/>
       <c r="K72" s="11" t="s">
         <v>409</v>
       </c>
@@ -11034,10 +11462,10 @@
       <c r="M72" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="N72" s="16"/>
+      <c r="N72" s="46"/>
     </row>
     <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="11">
         <v>4</v>
       </c>
@@ -11050,7 +11478,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="42"/>
+      <c r="J73" s="46"/>
       <c r="K73" s="11" t="s">
         <v>411</v>
       </c>
@@ -11058,10 +11486,10 @@
       <c r="M73" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="N73" s="16"/>
+      <c r="N73" s="46"/>
     </row>
     <row r="74" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="11">
         <v>5</v>
       </c>
@@ -11074,7 +11502,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="42"/>
+      <c r="J74" s="46"/>
       <c r="K74" s="11" t="s">
         <v>412</v>
       </c>
@@ -11082,10 +11510,10 @@
       <c r="M74" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="N74" s="16"/>
+      <c r="N74" s="46"/>
     </row>
     <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="11">
         <v>6</v>
       </c>
@@ -11098,16 +11526,16 @@
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="42"/>
+      <c r="J75" s="46"/>
       <c r="K75" s="11" t="s">
         <v>414</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="N75" s="16"/>
+      <c r="N75" s="46"/>
     </row>
     <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="11">
         <v>7</v>
       </c>
@@ -11120,7 +11548,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
-      <c r="J76" s="42"/>
+      <c r="J76" s="46"/>
       <c r="K76" s="23" t="s">
         <v>415</v>
       </c>
@@ -11128,10 +11556,10 @@
       <c r="M76" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="N76" s="26"/>
+      <c r="N76" s="46"/>
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="11">
         <v>8</v>
       </c>
@@ -11144,7 +11572,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
-      <c r="J77" s="42"/>
+      <c r="J77" s="46"/>
       <c r="K77" s="23" t="s">
         <v>416</v>
       </c>
@@ -11152,10 +11580,10 @@
       <c r="M77" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="N77" s="26"/>
+      <c r="N77" s="46"/>
     </row>
     <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="11">
         <v>9</v>
       </c>
@@ -11168,16 +11596,16 @@
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
-      <c r="J78" s="42"/>
+      <c r="J78" s="46"/>
       <c r="K78" s="11" t="s">
         <v>417</v>
       </c>
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="26"/>
+      <c r="N78" s="46"/>
     </row>
     <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="11">
         <v>10</v>
       </c>
@@ -11190,7 +11618,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="42"/>
+      <c r="J79" s="46"/>
       <c r="K79" s="23" t="s">
         <v>47</v>
       </c>
@@ -11198,10 +11626,10 @@
       <c r="M79" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="N79" s="26"/>
+      <c r="N79" s="46"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="11">
         <v>11</v>
       </c>
@@ -11214,17 +11642,17 @@
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
-      <c r="J80" s="42"/>
+      <c r="J80" s="46"/>
       <c r="K80" s="23" t="s">
         <v>418</v>
       </c>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="26"/>
+      <c r="N80" s="46"/>
     </row>
     <row r="81" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="11"/>
@@ -11242,7 +11670,7 @@
     </row>
     <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="11"/>
@@ -11259,84 +11687,84 @@
       <c r="N82" s="26"/>
     </row>
     <row r="83" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
-        <v>543</v>
+      <c r="A83" s="46" t="s">
+        <v>541</v>
       </c>
       <c r="B83" s="11">
         <v>1</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
-      <c r="J83" s="43"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
       <c r="N83" s="26"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D84" s="23"/>
       <c r="E84" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
-      <c r="J84" s="44"/>
+      <c r="J84" s="48"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
-      <c r="J85" s="44"/>
+      <c r="J85" s="48"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
       <c r="N85" s="26"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
-      <c r="J86" s="45"/>
+      <c r="J86" s="49"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
@@ -11344,7 +11772,7 @@
     </row>
     <row r="87" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="36"/>
@@ -11392,13 +11820,13 @@
       <c r="M89" s="26"/>
       <c r="N89" s="26"/>
     </row>
-    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="50" t="s">
-        <v>542</v>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>540</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -11407,15 +11835,15 @@
       <c r="H90" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="J90" t="s">
-        <v>421</v>
-      </c>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="57"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -11425,15 +11853,18 @@
       <c r="H91" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I91" s="23" t="s">
+      <c r="I91" s="45" t="s">
         <v>420</v>
       </c>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="23"/>
       <c r="C92" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
@@ -11442,12 +11873,15 @@
       <c r="H92" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I92" s="23" t="s">
-        <v>422</v>
-      </c>
+      <c r="I92" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23" t="s">
@@ -11463,12 +11897,15 @@
       <c r="H93" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I93" s="23" t="s">
-        <v>423</v>
-      </c>
+      <c r="I93" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23" t="s">
@@ -11484,12 +11921,15 @@
       <c r="H94" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I94" s="23" t="s">
-        <v>424</v>
-      </c>
+      <c r="I94" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="45"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
       <c r="D95" s="23" t="s">
@@ -11498,17 +11938,20 @@
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H95" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I95" s="23" t="s">
-        <v>425</v>
-      </c>
+      <c r="I95" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
       <c r="D96" s="23" t="s">
@@ -11517,17 +11960,20 @@
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I96" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="H96" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I96" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
       <c r="D97" s="23" t="s">
@@ -11541,19 +11987,22 @@
       <c r="H97" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I97" s="23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="I97" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="23">
@@ -11562,12 +12011,15 @@
       <c r="H98" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I98" s="23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="I98" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23" t="s">
@@ -11583,12 +12035,15 @@
       <c r="H99" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I99" s="23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="I99" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23" t="s">
@@ -11602,12 +12057,15 @@
       <c r="H100" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I100" s="23" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="I100" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23" t="s">
@@ -11621,12 +12079,15 @@
       <c r="H101" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I101" s="23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="I101" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23" t="s">
@@ -11640,12 +12101,15 @@
       <c r="H102" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I102" s="23" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
+      <c r="I102" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="55"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23" t="s">
@@ -11654,20 +12118,23 @@
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H103" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I103" s="23" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
+      <c r="I103" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -11676,15 +12143,18 @@
       <c r="H104" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I104" s="23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
+      <c r="I104" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="55"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -11693,31 +12163,37 @@
       <c r="H105" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I105" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
+      <c r="I105" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H106" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I106" s="23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
+      <c r="I106" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="55"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23" t="s">
@@ -11729,14 +12205,17 @@
         <v>300</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I107" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="45"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23" t="s">
@@ -11745,43 +12224,49 @@
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I108" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="45"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="55"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I109" s="23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I109" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="23">
@@ -11790,12 +12275,15 @@
       <c r="H110" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I110" s="23" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
+      <c r="I110" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="55"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23" t="s">
@@ -11807,14 +12295,17 @@
         <v>15</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I111" s="23" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I111" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="55"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23" t="s">
@@ -11823,17 +12314,20 @@
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H112" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I112" s="23" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
+      <c r="I112" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23" t="s">
@@ -11842,17 +12336,20 @@
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H113" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I113" s="23" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
+      <c r="I113" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="55"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23" t="s">
@@ -11861,17 +12358,20 @@
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I114" s="23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I114" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23" t="s">
@@ -11880,17 +12380,20 @@
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H115" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I115" s="23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
+      <c r="I115" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="55"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23" t="s">
@@ -11899,20 +12402,23 @@
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H116" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I116" s="23" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="51"/>
+      <c r="I116" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="55"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
@@ -11921,15 +12427,18 @@
       <c r="H117" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I117" s="23" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="51"/>
+      <c r="I117" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="55"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -11938,19 +12447,22 @@
       <c r="H118" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I118" s="23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
+      <c r="I118" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="55"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="23">
@@ -11959,33 +12471,39 @@
       <c r="H119" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I119" s="23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
+      <c r="I119" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="55"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H120" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I120" s="23" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
+      <c r="I120" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="J120" s="45"/>
+      <c r="K120" s="45"/>
+      <c r="L120" s="45"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="55"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23" t="s">
@@ -11994,17 +12512,20 @@
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H121" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I121" s="23" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
+      <c r="I121" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="55"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23" t="s">
@@ -12013,20 +12534,23 @@
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I122" s="23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
+      <c r="I122" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="J122" s="45"/>
+      <c r="K122" s="45"/>
+      <c r="L122" s="45"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="55"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
@@ -12035,15 +12559,18 @@
       <c r="H123" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I123" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
+      <c r="I123" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="45"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="55"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
@@ -12052,19 +12579,22 @@
       <c r="H124" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I124" s="23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
+      <c r="I124" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="J124" s="45"/>
+      <c r="K124" s="45"/>
+      <c r="L124" s="45"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="55"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="23">
@@ -12073,36 +12603,42 @@
       <c r="H125" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I125" s="23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="51"/>
+      <c r="I125" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H126" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I126" s="23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
+      <c r="I126" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="J126" s="45"/>
+      <c r="K126" s="45"/>
+      <c r="L126" s="45"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="55"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>200</v>
@@ -12110,17 +12646,20 @@
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="I127" s="23" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
+      <c r="I127" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="J127" s="45"/>
+      <c r="K127" s="45"/>
+      <c r="L127" s="45"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="55"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23" t="s">
@@ -12129,17 +12668,20 @@
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
       <c r="G128" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H128" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I128" s="23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
+      <c r="I128" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="55"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23" t="s">
@@ -12148,20 +12690,23 @@
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H129" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I129" s="23" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
+      <c r="I129" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="55"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
@@ -12170,15 +12715,18 @@
       <c r="H130" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I130" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
+      <c r="I130" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="J130" s="45"/>
+      <c r="K130" s="45"/>
+      <c r="L130" s="45"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="55"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -12187,12 +12735,15 @@
       <c r="H131" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I131" s="23" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="51"/>
+      <c r="I131" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="J131" s="45"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="45"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="55"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23" t="s">
@@ -12201,17 +12752,20 @@
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
       <c r="G132" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H132" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I132" s="23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
+      <c r="I132" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="J132" s="45"/>
+      <c r="K132" s="45"/>
+      <c r="L132" s="45"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="55"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23" t="s">
@@ -12220,17 +12774,20 @@
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H133" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I133" s="23" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
+      <c r="I133" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="J133" s="45"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="45"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="55"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23" t="s">
@@ -12239,20 +12796,23 @@
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I134" s="23" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I134" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="J134" s="45"/>
+      <c r="K134" s="45"/>
+      <c r="L134" s="45"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="55"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
@@ -12261,15 +12821,18 @@
       <c r="H135" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I135" s="23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
+      <c r="I135" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="J135" s="45"/>
+      <c r="K135" s="45"/>
+      <c r="L135" s="45"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="55"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -12278,19 +12841,22 @@
       <c r="H136" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I136" s="23" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
+      <c r="I136" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="J136" s="45"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="45"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="55"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="23">
@@ -12299,15 +12865,15 @@
       <c r="H137" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I137" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="K137" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
+      <c r="I137" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="55"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23" t="s">
@@ -12316,17 +12882,20 @@
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
       <c r="G138" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H138" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I138" s="23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
+      <c r="I138" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
+      <c r="L138" s="45"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="55"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23" t="s">
@@ -12335,39 +12904,45 @@
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
       <c r="G139" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H139" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="I139" s="23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
+        <v>489</v>
+      </c>
+      <c r="I139" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="J139" s="45"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="45"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="55"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
       <c r="G140" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="I140" s="23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
+        <v>489</v>
+      </c>
+      <c r="I140" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="J140" s="45"/>
+      <c r="K140" s="45"/>
+      <c r="L140" s="45"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="55"/>
       <c r="B141" s="23"/>
       <c r="C141" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
@@ -12376,15 +12951,18 @@
       <c r="H141" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I141" s="23" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
+      <c r="I141" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="55"/>
       <c r="B142" s="23"/>
       <c r="C142" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
@@ -12393,12 +12971,15 @@
       <c r="H142" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I142" s="23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
+      <c r="I142" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="J142" s="45"/>
+      <c r="K142" s="45"/>
+      <c r="L142" s="45"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="55"/>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23" t="s">
@@ -12407,17 +12988,20 @@
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H143" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="I143" s="23" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
+      <c r="I143" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="J143" s="45"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="45"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="55"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23" t="s">
@@ -12426,20 +13010,23 @@
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H144" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="I144" s="23" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
+      <c r="I144" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="J144" s="45"/>
+      <c r="K144" s="45"/>
+      <c r="L144" s="45"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="55"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
@@ -12448,15 +13035,18 @@
       <c r="H145" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I145" s="23" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+      <c r="I145" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="55"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
@@ -12465,15 +13055,18 @@
       <c r="H146" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I146" s="23" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
+      <c r="I146" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="J146" s="45"/>
+      <c r="K146" s="45"/>
+      <c r="L146" s="45"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="55"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
@@ -12482,12 +13075,15 @@
       <c r="H147" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I147" s="23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
+      <c r="I147" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="J147" s="45"/>
+      <c r="K147" s="45"/>
+      <c r="L147" s="45"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23" t="s">
@@ -12496,17 +13092,20 @@
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H148" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I148" s="23" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+      <c r="I148" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="J148" s="45"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="55"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23" t="s">
@@ -12515,17 +13114,20 @@
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
       <c r="G149" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I149" s="23" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I149" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="55"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23" t="s">
@@ -12534,17 +13136,20 @@
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
       <c r="G150" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H150" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I150" s="23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
+      <c r="I150" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="J150" s="45"/>
+      <c r="K150" s="45"/>
+      <c r="L150" s="45"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="55"/>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23" t="s">
@@ -12553,17 +13158,20 @@
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H151" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I151" s="23" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
+      <c r="I151" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
+      <c r="L151" s="45"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="55"/>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23" t="s">
@@ -12572,17 +13180,20 @@
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H152" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I152" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
+      <c r="I152" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="J152" s="45"/>
+      <c r="K152" s="45"/>
+      <c r="L152" s="45"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="55"/>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23" t="s">
@@ -12591,17 +13202,20 @@
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H153" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I153" s="23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
+      <c r="I153" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="55"/>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23" t="s">
@@ -12610,34 +13224,40 @@
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
       <c r="G154" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H154" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I154" s="23" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
+      <c r="I154" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
+      <c r="L154" s="45"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="55"/>
       <c r="B155" s="23"/>
       <c r="C155" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
       <c r="H155" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I155" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="55"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -12645,14 +13265,17 @@
       <c r="F156" s="23"/>
       <c r="G156" s="23"/>
       <c r="H156" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I156" s="23" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I156" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="J156" s="45"/>
+      <c r="K156" s="45"/>
+      <c r="L156" s="45"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="55"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -12660,14 +13283,17 @@
       <c r="F157" s="23"/>
       <c r="G157" s="23"/>
       <c r="H157" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I157" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I157" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="55"/>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -12675,34 +13301,40 @@
       <c r="F158" s="23"/>
       <c r="G158" s="23"/>
       <c r="H158" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I158" s="23" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I158" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="J158" s="45"/>
+      <c r="K158" s="45"/>
+      <c r="L158" s="45"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="55"/>
       <c r="B159" s="23"/>
       <c r="C159" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23"/>
       <c r="H159" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I159" s="23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I159" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="J159" s="45"/>
+      <c r="K159" s="45"/>
+      <c r="L159" s="45"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="55"/>
       <c r="B160" s="23"/>
       <c r="C160" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
@@ -12711,15 +13343,18 @@
       <c r="H160" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I160" s="23" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
+      <c r="I160" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="55"/>
       <c r="B161" s="23"/>
       <c r="C161" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
@@ -12728,19 +13363,22 @@
       <c r="H161" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I161" s="23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
+      <c r="I161" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="55"/>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="23">
@@ -12749,33 +13387,39 @@
       <c r="H162" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I162" s="23" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
+      <c r="I162" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="J162" s="45"/>
+      <c r="K162" s="45"/>
+      <c r="L162" s="45"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="55"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H163" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I163" s="23" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
+      <c r="I163" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="J163" s="45"/>
+      <c r="K163" s="45"/>
+      <c r="L163" s="45"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="55"/>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23" t="s">
@@ -12784,17 +13428,20 @@
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
       <c r="G164" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H164" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I164" s="23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
+      <c r="I164" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="J164" s="45"/>
+      <c r="K164" s="45"/>
+      <c r="L164" s="45"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="55"/>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23" t="s">
@@ -12803,17 +13450,20 @@
       <c r="E165" s="23"/>
       <c r="F165" s="23"/>
       <c r="G165" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H165" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I165" s="23" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
+      <c r="I165" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
+      <c r="L165" s="45"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="55"/>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23" t="s">
@@ -12822,20 +13472,23 @@
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
       <c r="G166" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H166" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I166" s="23" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
+      <c r="I166" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="J166" s="45"/>
+      <c r="K166" s="45"/>
+      <c r="L166" s="45"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="55"/>
       <c r="B167" s="23"/>
       <c r="C167" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
@@ -12844,15 +13497,18 @@
       <c r="H167" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I167" s="23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
+      <c r="I167" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="J167" s="45"/>
+      <c r="K167" s="45"/>
+      <c r="L167" s="45"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="55"/>
       <c r="B168" s="23"/>
       <c r="C168" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
@@ -12861,19 +13517,22 @@
       <c r="H168" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I168" s="23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="51"/>
+      <c r="I168" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="J168" s="45"/>
+      <c r="K168" s="45"/>
+      <c r="L168" s="45"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="55"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E169" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="23">
@@ -12882,33 +13541,39 @@
       <c r="H169" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I169" s="23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="51"/>
+      <c r="I169" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="J169" s="45"/>
+      <c r="K169" s="45"/>
+      <c r="L169" s="45"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="55"/>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H170" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I170" s="23" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
+      <c r="I170" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="J170" s="45"/>
+      <c r="K170" s="45"/>
+      <c r="L170" s="45"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="55"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23" t="s">
@@ -12916,20 +13581,23 @@
       </c>
       <c r="E171" s="23"/>
       <c r="F171" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H171" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I171" s="23" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
+      <c r="I171" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="J171" s="45"/>
+      <c r="K171" s="45"/>
+      <c r="L171" s="45"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="55"/>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23" t="s">
@@ -12938,17 +13606,20 @@
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
       <c r="G172" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H172" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I172" s="23" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="51"/>
+      <c r="I172" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="J172" s="45"/>
+      <c r="K172" s="45"/>
+      <c r="L172" s="45"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="55"/>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23" t="s">
@@ -12957,20 +13628,23 @@
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
       <c r="G173" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H173" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I173" s="23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
+      <c r="I173" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="J173" s="45"/>
+      <c r="K173" s="45"/>
+      <c r="L173" s="45"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="55"/>
       <c r="B174" s="23"/>
       <c r="C174" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
@@ -12979,15 +13653,18 @@
       <c r="H174" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I174" s="23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
+      <c r="I174" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="J174" s="45"/>
+      <c r="K174" s="45"/>
+      <c r="L174" s="45"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="55"/>
       <c r="B175" s="23"/>
       <c r="C175" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
@@ -12996,19 +13673,22 @@
       <c r="H175" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I175" s="23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="51"/>
+      <c r="I175" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="J175" s="45"/>
+      <c r="K175" s="45"/>
+      <c r="L175" s="45"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="55"/>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E176" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="23">
@@ -13017,33 +13697,39 @@
       <c r="H176" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I176" s="23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="51"/>
+      <c r="I176" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="J176" s="45"/>
+      <c r="K176" s="45"/>
+      <c r="L176" s="45"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="55"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H177" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I177" s="23" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="51"/>
+      <c r="I177" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="J177" s="45"/>
+      <c r="K177" s="45"/>
+      <c r="L177" s="45"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="55"/>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23" t="s">
@@ -13052,17 +13738,20 @@
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H178" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I178" s="23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
+      <c r="I178" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="J178" s="45"/>
+      <c r="K178" s="45"/>
+      <c r="L178" s="45"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="55"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23" t="s">
@@ -13071,17 +13760,20 @@
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H179" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I179" s="23" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+      <c r="I179" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="J179" s="45"/>
+      <c r="K179" s="45"/>
+      <c r="L179" s="45"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="55"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23" t="s">
@@ -13090,20 +13782,23 @@
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
       <c r="G180" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H180" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I180" s="23" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+      <c r="I180" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="J180" s="45"/>
+      <c r="K180" s="45"/>
+      <c r="L180" s="45"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="55"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
@@ -13112,15 +13807,18 @@
       <c r="H181" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+      <c r="I181" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
+      <c r="L181" s="45"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="55"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
@@ -13129,15 +13827,18 @@
       <c r="H182" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I182" s="23" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+      <c r="I182" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="J182" s="45"/>
+      <c r="K182" s="45"/>
+      <c r="L182" s="45"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="55"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
@@ -13146,15 +13847,18 @@
       <c r="H183" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I183" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="I183" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="J183" s="45"/>
+      <c r="K183" s="45"/>
+      <c r="L183" s="45"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="55"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
@@ -13163,29 +13867,35 @@
       <c r="H184" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I184" s="23" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+      <c r="I184" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="J184" s="45"/>
+      <c r="K184" s="45"/>
+      <c r="L184" s="45"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="55"/>
       <c r="B185" s="23"/>
       <c r="C185" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
       <c r="H185" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I185" s="23" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I185" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="J185" s="45"/>
+      <c r="K185" s="45"/>
+      <c r="L185" s="45"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="55"/>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -13193,14 +13903,17 @@
       <c r="F186" s="23"/>
       <c r="G186" s="23"/>
       <c r="H186" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I186" s="23" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I186" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="J186" s="45"/>
+      <c r="K186" s="45"/>
+      <c r="L186" s="45"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="55"/>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -13208,34 +13921,40 @@
       <c r="F187" s="23"/>
       <c r="G187" s="23"/>
       <c r="H187" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I187" s="23" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+        <v>427</v>
+      </c>
+      <c r="I187" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="J187" s="45"/>
+      <c r="K187" s="45"/>
+      <c r="L187" s="45"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="55"/>
       <c r="B188" s="23"/>
       <c r="C188" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
       <c r="G188" s="23"/>
       <c r="H188" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I188" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="52"/>
+        <v>427</v>
+      </c>
+      <c r="I188" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="J188" s="45"/>
+      <c r="K188" s="45"/>
+      <c r="L188" s="45"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="56"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
@@ -13244,29 +13963,42 @@
       <c r="H189" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I189" s="23" t="s">
-        <v>541</v>
-      </c>
+      <c r="I189" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="A90:A189"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="J83:J86"/>
+  <mergeCells count="134">
+    <mergeCell ref="I93:L93"/>
     <mergeCell ref="A70:A80"/>
     <mergeCell ref="J70:J80"/>
     <mergeCell ref="N41:N49"/>
     <mergeCell ref="N50:N55"/>
     <mergeCell ref="N58:N65"/>
+    <mergeCell ref="N70:N80"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I92:L92"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="J14:J19"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A3:A12"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I98:L98"/>
     <mergeCell ref="N20:N23"/>
     <mergeCell ref="N14:N19"/>
     <mergeCell ref="J58:J65"/>
@@ -13283,6 +14015,100 @@
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A90:A189"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I189:L189"/>
+    <mergeCell ref="I184:L184"/>
+    <mergeCell ref="I185:L185"/>
+    <mergeCell ref="I186:L186"/>
+    <mergeCell ref="I187:L187"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="I183:L183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13293,6 +14119,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="E12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="E21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>631</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B25" t="s">
+        <v>633</v>
+      </c>
+      <c r="E25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>634</v>
+      </c>
+      <c r="E26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" t="s">
+        <v>401</v>
+      </c>
+      <c r="G30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>560</v>
+      </c>
+      <c r="B31" t="s">
+        <v>403</v>
+      </c>
+      <c r="G31" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>635</v>
+      </c>
+      <c r="G32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="G34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B37" t="s">
+        <v>401</v>
+      </c>
+      <c r="G37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B38" t="s">
+        <v>403</v>
+      </c>
+      <c r="G38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>636</v>
+      </c>
+      <c r="G39" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>560</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>417</v>
+      </c>
+      <c r="G41" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>418</v>
+      </c>
+      <c r="E45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>638</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>640</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>638</v>
+      </c>
+      <c r="B53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>638</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>642</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>643</v>
+      </c>
+      <c r="F63" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" t="s">
+        <v>644</v>
+      </c>
+      <c r="F67" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" t="s">
+        <v>645</v>
+      </c>
+      <c r="F68" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B71" t="s">
+        <v>401</v>
+      </c>
+      <c r="H71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>560</v>
+      </c>
+      <c r="B72" t="s">
+        <v>403</v>
+      </c>
+      <c r="H72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>560</v>
+      </c>
+      <c r="B73" t="s">
+        <v>354</v>
+      </c>
+      <c r="H73" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" t="s">
+        <v>407</v>
+      </c>
+      <c r="H74" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
+        <v>417</v>
+      </c>
+      <c r="H75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>642</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>643</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>642</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F84" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>644</v>
+      </c>
+      <c r="F85" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>645</v>
+      </c>
+      <c r="F86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B89" t="s">
+        <v>401</v>
+      </c>
+      <c r="H89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>560</v>
+      </c>
+      <c r="B90" t="s">
+        <v>403</v>
+      </c>
+      <c r="H90" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>560</v>
+      </c>
+      <c r="B91" t="s">
+        <v>354</v>
+      </c>
+      <c r="H91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="H92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" t="s">
+        <v>417</v>
+      </c>
+      <c r="H93" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G13"/>
   <sheetViews>
@@ -13311,25 +15203,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="42" t="s">
         <v>403</v>
       </c>
     </row>
